--- a/文件操作/2-工资处理/工资统计new.xlsx
+++ b/文件操作/2-工资处理/工资统计new.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="120" yWindow="45" windowWidth="14955" windowHeight="8865" tabRatio="705" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="25840" windowHeight="14187" tabRatio="705" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="教工基本信息" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工作量汇总" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="145621" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -176,7 +176,74 @@
     <cellStyle name="超链接" xfId="6" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -185,7 +252,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="2E353D"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -223,7 +290,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,9 +323,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,6 +375,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -474,461 +575,461 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16"/>
   <cols>
     <col width="9" customWidth="1" style="7" min="1" max="1"/>
     <col width="10" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
-    <col width="7.875" customWidth="1" style="7" min="4" max="4"/>
-    <col width="12.125" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="6.875" customWidth="1" style="7" min="6" max="6"/>
-    <col width="13.25" customWidth="1" style="7" min="7" max="7"/>
-    <col width="13.375" bestFit="1" customWidth="1" style="7" min="8" max="8"/>
-    <col width="16.25" customWidth="1" style="22" min="9" max="9"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
+    <col width="7.88671875" customWidth="1" style="7" min="4" max="4"/>
+    <col width="12.109375" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
+    <col width="6.88671875" customWidth="1" style="7" min="6" max="6"/>
+    <col width="13.21875" customWidth="1" style="7" min="7" max="7"/>
+    <col width="13.33203125" bestFit="1" customWidth="1" style="7" min="8" max="8"/>
+    <col width="16.21875" customWidth="1" style="22" min="9" max="9"/>
     <col width="9" customWidth="1" style="7" min="10" max="258"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="259" max="259"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="260" max="260"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="261" max="261"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="262" max="262"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="263" max="263"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="264" max="264"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="259" max="259"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="260" max="260"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="261" max="261"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="262" max="262"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="263" max="263"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="264" max="264"/>
     <col width="9" customWidth="1" style="7" min="265" max="514"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="515" max="515"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="516" max="516"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="517" max="517"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="518" max="518"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="519" max="519"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="520" max="520"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="515" max="515"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="516" max="516"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="517" max="517"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="518" max="518"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="519" max="519"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="520" max="520"/>
     <col width="9" customWidth="1" style="7" min="521" max="770"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="771" max="771"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="772" max="772"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="773" max="773"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="774" max="774"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="775" max="775"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="776" max="776"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="771" max="771"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="772" max="772"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="773" max="773"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="774" max="774"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="775" max="775"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="776" max="776"/>
     <col width="9" customWidth="1" style="7" min="777" max="1026"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="1027" max="1027"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="1028" max="1028"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="1029" max="1029"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="1030" max="1030"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="1031" max="1031"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="1032" max="1032"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="1027" max="1027"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="1028" max="1028"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="1029" max="1029"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="1030" max="1030"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="1031" max="1031"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="1032" max="1032"/>
     <col width="9" customWidth="1" style="7" min="1033" max="1282"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="1283" max="1283"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="1284" max="1284"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="1285" max="1285"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="1286" max="1286"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="1287" max="1287"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="1288" max="1288"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="1283" max="1283"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="1284" max="1284"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="1285" max="1285"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="1286" max="1286"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="1287" max="1287"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="1288" max="1288"/>
     <col width="9" customWidth="1" style="7" min="1289" max="1538"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="1539" max="1539"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="1540" max="1540"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="1541" max="1541"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="1542" max="1542"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="1543" max="1543"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="1544" max="1544"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="1539" max="1539"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="1540" max="1540"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="1541" max="1541"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="1542" max="1542"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="1543" max="1543"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="1544" max="1544"/>
     <col width="9" customWidth="1" style="7" min="1545" max="1794"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="1795" max="1795"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="1796" max="1796"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="1797" max="1797"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="1798" max="1798"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="1799" max="1799"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="1800" max="1800"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="1795" max="1795"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="1796" max="1796"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="1797" max="1797"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="1798" max="1798"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="1799" max="1799"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="1800" max="1800"/>
     <col width="9" customWidth="1" style="7" min="1801" max="2050"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="2051" max="2051"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="2052" max="2052"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="2053" max="2053"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="2054" max="2054"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="2055" max="2055"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="2056" max="2056"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="2051" max="2051"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="2052" max="2052"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="2053" max="2053"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="2054" max="2054"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="2055" max="2055"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="2056" max="2056"/>
     <col width="9" customWidth="1" style="7" min="2057" max="2306"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="2307" max="2307"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="2308" max="2308"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="2309" max="2309"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="2310" max="2310"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="2311" max="2311"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="2312" max="2312"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="2307" max="2307"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="2308" max="2308"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="2309" max="2309"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="2310" max="2310"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="2311" max="2311"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="2312" max="2312"/>
     <col width="9" customWidth="1" style="7" min="2313" max="2562"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="2563" max="2563"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="2564" max="2564"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="2565" max="2565"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="2566" max="2566"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="2567" max="2567"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="2568" max="2568"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="2563" max="2563"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="2564" max="2564"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="2565" max="2565"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="2566" max="2566"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="2567" max="2567"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="2568" max="2568"/>
     <col width="9" customWidth="1" style="7" min="2569" max="2818"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="2819" max="2819"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="2820" max="2820"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="2821" max="2821"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="2822" max="2822"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="2823" max="2823"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="2824" max="2824"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="2819" max="2819"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="2820" max="2820"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="2821" max="2821"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="2822" max="2822"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="2823" max="2823"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="2824" max="2824"/>
     <col width="9" customWidth="1" style="7" min="2825" max="3074"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="3075" max="3075"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="3076" max="3076"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="3077" max="3077"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="3078" max="3078"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="3079" max="3079"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="3080" max="3080"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="3075" max="3075"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="3076" max="3076"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="3077" max="3077"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="3078" max="3078"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="3079" max="3079"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="3080" max="3080"/>
     <col width="9" customWidth="1" style="7" min="3081" max="3330"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="3331" max="3331"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="3332" max="3332"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="3333" max="3333"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="3334" max="3334"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="3335" max="3335"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="3336" max="3336"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="3331" max="3331"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="3332" max="3332"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="3333" max="3333"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="3334" max="3334"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="3335" max="3335"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="3336" max="3336"/>
     <col width="9" customWidth="1" style="7" min="3337" max="3586"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="3587" max="3587"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="3588" max="3588"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="3589" max="3589"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="3590" max="3590"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="3591" max="3591"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="3592" max="3592"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="3587" max="3587"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="3588" max="3588"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="3589" max="3589"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="3590" max="3590"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="3591" max="3591"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="3592" max="3592"/>
     <col width="9" customWidth="1" style="7" min="3593" max="3842"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="3843" max="3843"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="3844" max="3844"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="3845" max="3845"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="3846" max="3846"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="3847" max="3847"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="3848" max="3848"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="3843" max="3843"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="3844" max="3844"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="3845" max="3845"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="3846" max="3846"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="3847" max="3847"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="3848" max="3848"/>
     <col width="9" customWidth="1" style="7" min="3849" max="4098"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="4099" max="4099"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="4100" max="4100"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="4101" max="4101"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="4102" max="4102"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="4103" max="4103"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="4104" max="4104"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="4099" max="4099"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="4100" max="4100"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="4101" max="4101"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="4102" max="4102"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="4103" max="4103"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="4104" max="4104"/>
     <col width="9" customWidth="1" style="7" min="4105" max="4354"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="4355" max="4355"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="4356" max="4356"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="4357" max="4357"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="4358" max="4358"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="4359" max="4359"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="4360" max="4360"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="4355" max="4355"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="4356" max="4356"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="4357" max="4357"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="4358" max="4358"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="4359" max="4359"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="4360" max="4360"/>
     <col width="9" customWidth="1" style="7" min="4361" max="4610"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="4611" max="4611"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="4612" max="4612"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="4613" max="4613"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="4614" max="4614"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="4615" max="4615"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="4616" max="4616"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="4611" max="4611"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="4612" max="4612"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="4613" max="4613"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="4614" max="4614"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="4615" max="4615"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="4616" max="4616"/>
     <col width="9" customWidth="1" style="7" min="4617" max="4866"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="4867" max="4867"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="4868" max="4868"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="4869" max="4869"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="4870" max="4870"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="4871" max="4871"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="4872" max="4872"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="4867" max="4867"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="4868" max="4868"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="4869" max="4869"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="4870" max="4870"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="4871" max="4871"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="4872" max="4872"/>
     <col width="9" customWidth="1" style="7" min="4873" max="5122"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="5123" max="5123"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="5124" max="5124"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="5125" max="5125"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="5126" max="5126"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="5127" max="5127"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="5128" max="5128"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="5123" max="5123"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="5124" max="5124"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="5125" max="5125"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="5126" max="5126"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="5127" max="5127"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="5128" max="5128"/>
     <col width="9" customWidth="1" style="7" min="5129" max="5378"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="5379" max="5379"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="5380" max="5380"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="5381" max="5381"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="5382" max="5382"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="5383" max="5383"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="5384" max="5384"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="5379" max="5379"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="5380" max="5380"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="5381" max="5381"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="5382" max="5382"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="5383" max="5383"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="5384" max="5384"/>
     <col width="9" customWidth="1" style="7" min="5385" max="5634"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="5635" max="5635"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="5636" max="5636"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="5637" max="5637"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="5638" max="5638"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="5639" max="5639"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="5640" max="5640"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="5635" max="5635"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="5636" max="5636"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="5637" max="5637"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="5638" max="5638"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="5639" max="5639"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="5640" max="5640"/>
     <col width="9" customWidth="1" style="7" min="5641" max="5890"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="5891" max="5891"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="5892" max="5892"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="5893" max="5893"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="5894" max="5894"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="5895" max="5895"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="5896" max="5896"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="5891" max="5891"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="5892" max="5892"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="5893" max="5893"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="5894" max="5894"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="5895" max="5895"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="5896" max="5896"/>
     <col width="9" customWidth="1" style="7" min="5897" max="6146"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="6147" max="6147"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="6148" max="6148"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="6149" max="6149"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="6150" max="6150"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="6151" max="6151"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="6152" max="6152"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="6147" max="6147"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="6148" max="6148"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="6149" max="6149"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="6150" max="6150"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="6151" max="6151"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="6152" max="6152"/>
     <col width="9" customWidth="1" style="7" min="6153" max="6402"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="6403" max="6403"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="6404" max="6404"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="6405" max="6405"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="6406" max="6406"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="6407" max="6407"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="6408" max="6408"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="6403" max="6403"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="6404" max="6404"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="6405" max="6405"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="6406" max="6406"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="6407" max="6407"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="6408" max="6408"/>
     <col width="9" customWidth="1" style="7" min="6409" max="6658"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="6659" max="6659"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="6660" max="6660"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="6661" max="6661"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="6662" max="6662"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="6663" max="6663"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="6664" max="6664"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="6659" max="6659"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="6660" max="6660"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="6661" max="6661"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="6662" max="6662"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="6663" max="6663"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="6664" max="6664"/>
     <col width="9" customWidth="1" style="7" min="6665" max="6914"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="6915" max="6915"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="6916" max="6916"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="6917" max="6917"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="6918" max="6918"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="6919" max="6919"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="6920" max="6920"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="6915" max="6915"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="6916" max="6916"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="6917" max="6917"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="6918" max="6918"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="6919" max="6919"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="6920" max="6920"/>
     <col width="9" customWidth="1" style="7" min="6921" max="7170"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="7171" max="7171"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="7172" max="7172"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="7173" max="7173"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="7174" max="7174"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="7175" max="7175"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="7176" max="7176"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="7171" max="7171"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="7172" max="7172"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="7173" max="7173"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="7174" max="7174"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="7175" max="7175"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="7176" max="7176"/>
     <col width="9" customWidth="1" style="7" min="7177" max="7426"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="7427" max="7427"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="7428" max="7428"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="7429" max="7429"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="7430" max="7430"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="7431" max="7431"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="7432" max="7432"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="7427" max="7427"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="7428" max="7428"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="7429" max="7429"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="7430" max="7430"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="7431" max="7431"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="7432" max="7432"/>
     <col width="9" customWidth="1" style="7" min="7433" max="7682"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="7683" max="7683"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="7684" max="7684"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="7685" max="7685"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="7686" max="7686"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="7687" max="7687"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="7688" max="7688"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="7683" max="7683"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="7684" max="7684"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="7685" max="7685"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="7686" max="7686"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="7687" max="7687"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="7688" max="7688"/>
     <col width="9" customWidth="1" style="7" min="7689" max="7938"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="7939" max="7939"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="7940" max="7940"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="7941" max="7941"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="7942" max="7942"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="7943" max="7943"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="7944" max="7944"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="7939" max="7939"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="7940" max="7940"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="7941" max="7941"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="7942" max="7942"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="7943" max="7943"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="7944" max="7944"/>
     <col width="9" customWidth="1" style="7" min="7945" max="8194"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="8195" max="8195"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="8196" max="8196"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="8197" max="8197"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="8198" max="8198"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="8199" max="8199"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="8200" max="8200"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="8195" max="8195"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="8196" max="8196"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="8197" max="8197"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="8198" max="8198"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="8199" max="8199"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="8200" max="8200"/>
     <col width="9" customWidth="1" style="7" min="8201" max="8450"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="8451" max="8451"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="8452" max="8452"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="8453" max="8453"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="8454" max="8454"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="8455" max="8455"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="8456" max="8456"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="8451" max="8451"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="8452" max="8452"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="8453" max="8453"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="8454" max="8454"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="8455" max="8455"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="8456" max="8456"/>
     <col width="9" customWidth="1" style="7" min="8457" max="8706"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="8707" max="8707"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="8708" max="8708"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="8709" max="8709"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="8710" max="8710"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="8711" max="8711"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="8712" max="8712"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="8707" max="8707"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="8708" max="8708"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="8709" max="8709"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="8710" max="8710"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="8711" max="8711"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="8712" max="8712"/>
     <col width="9" customWidth="1" style="7" min="8713" max="8962"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="8963" max="8963"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="8964" max="8964"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="8965" max="8965"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="8966" max="8966"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="8967" max="8967"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="8968" max="8968"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="8963" max="8963"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="8964" max="8964"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="8965" max="8965"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="8966" max="8966"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="8967" max="8967"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="8968" max="8968"/>
     <col width="9" customWidth="1" style="7" min="8969" max="9218"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="9219" max="9219"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="9220" max="9220"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="9221" max="9221"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="9222" max="9222"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="9223" max="9223"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="9224" max="9224"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="9219" max="9219"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="9220" max="9220"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="9221" max="9221"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="9222" max="9222"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="9223" max="9223"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="9224" max="9224"/>
     <col width="9" customWidth="1" style="7" min="9225" max="9474"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="9475" max="9475"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="9476" max="9476"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="9477" max="9477"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="9478" max="9478"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="9479" max="9479"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="9480" max="9480"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="9475" max="9475"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="9476" max="9476"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="9477" max="9477"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="9478" max="9478"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="9479" max="9479"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="9480" max="9480"/>
     <col width="9" customWidth="1" style="7" min="9481" max="9730"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="9731" max="9731"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="9732" max="9732"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="9733" max="9733"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="9734" max="9734"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="9735" max="9735"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="9736" max="9736"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="9731" max="9731"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="9732" max="9732"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="9733" max="9733"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="9734" max="9734"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="9735" max="9735"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="9736" max="9736"/>
     <col width="9" customWidth="1" style="7" min="9737" max="9986"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="9987" max="9987"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="9988" max="9988"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="9989" max="9989"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="9990" max="9990"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="9991" max="9991"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="9992" max="9992"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="9987" max="9987"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="9988" max="9988"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="9989" max="9989"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="9990" max="9990"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="9991" max="9991"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="9992" max="9992"/>
     <col width="9" customWidth="1" style="7" min="9993" max="10242"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="10243" max="10243"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="10244" max="10244"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="10245" max="10245"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="10246" max="10246"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="10247" max="10247"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="10248" max="10248"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="10243" max="10243"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="10244" max="10244"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="10245" max="10245"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="10246" max="10246"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="10247" max="10247"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="10248" max="10248"/>
     <col width="9" customWidth="1" style="7" min="10249" max="10498"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="10499" max="10499"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="10500" max="10500"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="10501" max="10501"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="10502" max="10502"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="10503" max="10503"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="10504" max="10504"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="10499" max="10499"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="10500" max="10500"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="10501" max="10501"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="10502" max="10502"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="10503" max="10503"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="10504" max="10504"/>
     <col width="9" customWidth="1" style="7" min="10505" max="10754"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="10755" max="10755"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="10756" max="10756"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="10757" max="10757"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="10758" max="10758"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="10759" max="10759"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="10760" max="10760"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="10755" max="10755"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="10756" max="10756"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="10757" max="10757"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="10758" max="10758"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="10759" max="10759"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="10760" max="10760"/>
     <col width="9" customWidth="1" style="7" min="10761" max="11010"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="11011" max="11011"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="11012" max="11012"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="11013" max="11013"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="11014" max="11014"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="11015" max="11015"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="11016" max="11016"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="11011" max="11011"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="11012" max="11012"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="11013" max="11013"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="11014" max="11014"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="11015" max="11015"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="11016" max="11016"/>
     <col width="9" customWidth="1" style="7" min="11017" max="11266"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="11267" max="11267"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="11268" max="11268"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="11269" max="11269"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="11270" max="11270"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="11271" max="11271"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="11272" max="11272"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="11267" max="11267"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="11268" max="11268"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="11269" max="11269"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="11270" max="11270"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="11271" max="11271"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="11272" max="11272"/>
     <col width="9" customWidth="1" style="7" min="11273" max="11522"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="11523" max="11523"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="11524" max="11524"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="11525" max="11525"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="11526" max="11526"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="11527" max="11527"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="11528" max="11528"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="11523" max="11523"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="11524" max="11524"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="11525" max="11525"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="11526" max="11526"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="11527" max="11527"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="11528" max="11528"/>
     <col width="9" customWidth="1" style="7" min="11529" max="11778"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="11779" max="11779"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="11780" max="11780"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="11781" max="11781"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="11782" max="11782"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="11783" max="11783"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="11784" max="11784"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="11779" max="11779"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="11780" max="11780"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="11781" max="11781"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="11782" max="11782"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="11783" max="11783"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="11784" max="11784"/>
     <col width="9" customWidth="1" style="7" min="11785" max="12034"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="12035" max="12035"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="12036" max="12036"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="12037" max="12037"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="12038" max="12038"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="12039" max="12039"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="12040" max="12040"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="12035" max="12035"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="12036" max="12036"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="12037" max="12037"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="12038" max="12038"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="12039" max="12039"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="12040" max="12040"/>
     <col width="9" customWidth="1" style="7" min="12041" max="12290"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="12291" max="12291"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="12292" max="12292"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="12293" max="12293"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="12294" max="12294"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="12295" max="12295"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="12296" max="12296"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="12291" max="12291"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="12292" max="12292"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="12293" max="12293"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="12294" max="12294"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="12295" max="12295"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="12296" max="12296"/>
     <col width="9" customWidth="1" style="7" min="12297" max="12546"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="12547" max="12547"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="12548" max="12548"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="12549" max="12549"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="12550" max="12550"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="12551" max="12551"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="12552" max="12552"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="12547" max="12547"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="12548" max="12548"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="12549" max="12549"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="12550" max="12550"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="12551" max="12551"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="12552" max="12552"/>
     <col width="9" customWidth="1" style="7" min="12553" max="12802"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="12803" max="12803"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="12804" max="12804"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="12805" max="12805"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="12806" max="12806"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="12807" max="12807"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="12808" max="12808"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="12803" max="12803"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="12804" max="12804"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="12805" max="12805"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="12806" max="12806"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="12807" max="12807"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="12808" max="12808"/>
     <col width="9" customWidth="1" style="7" min="12809" max="13058"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="13059" max="13059"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="13060" max="13060"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="13061" max="13061"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="13062" max="13062"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="13063" max="13063"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="13064" max="13064"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="13059" max="13059"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="13060" max="13060"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="13061" max="13061"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="13062" max="13062"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="13063" max="13063"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="13064" max="13064"/>
     <col width="9" customWidth="1" style="7" min="13065" max="13314"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="13315" max="13315"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="13316" max="13316"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="13317" max="13317"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="13318" max="13318"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="13319" max="13319"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="13320" max="13320"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="13315" max="13315"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="13316" max="13316"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="13317" max="13317"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="13318" max="13318"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="13319" max="13319"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="13320" max="13320"/>
     <col width="9" customWidth="1" style="7" min="13321" max="13570"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="13571" max="13571"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="13572" max="13572"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="13573" max="13573"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="13574" max="13574"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="13575" max="13575"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="13576" max="13576"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="13571" max="13571"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="13572" max="13572"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="13573" max="13573"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="13574" max="13574"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="13575" max="13575"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="13576" max="13576"/>
     <col width="9" customWidth="1" style="7" min="13577" max="13826"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="13827" max="13827"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="13828" max="13828"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="13829" max="13829"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="13830" max="13830"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="13831" max="13831"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="13832" max="13832"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="13827" max="13827"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="13828" max="13828"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="13829" max="13829"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="13830" max="13830"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="13831" max="13831"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="13832" max="13832"/>
     <col width="9" customWidth="1" style="7" min="13833" max="14082"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="14083" max="14083"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="14084" max="14084"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="14085" max="14085"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="14086" max="14086"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="14087" max="14087"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="14088" max="14088"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="14083" max="14083"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="14084" max="14084"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="14085" max="14085"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="14086" max="14086"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="14087" max="14087"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="14088" max="14088"/>
     <col width="9" customWidth="1" style="7" min="14089" max="14338"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="14339" max="14339"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="14340" max="14340"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="14341" max="14341"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="14342" max="14342"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="14343" max="14343"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="14344" max="14344"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="14339" max="14339"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="14340" max="14340"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="14341" max="14341"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="14342" max="14342"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="14343" max="14343"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="14344" max="14344"/>
     <col width="9" customWidth="1" style="7" min="14345" max="14594"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="14595" max="14595"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="14596" max="14596"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="14597" max="14597"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="14598" max="14598"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="14599" max="14599"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="14600" max="14600"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="14595" max="14595"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="14596" max="14596"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="14597" max="14597"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="14598" max="14598"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="14599" max="14599"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="14600" max="14600"/>
     <col width="9" customWidth="1" style="7" min="14601" max="14850"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="14851" max="14851"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="14852" max="14852"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="14853" max="14853"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="14854" max="14854"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="14855" max="14855"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="14856" max="14856"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="14851" max="14851"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="14852" max="14852"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="14853" max="14853"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="14854" max="14854"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="14855" max="14855"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="14856" max="14856"/>
     <col width="9" customWidth="1" style="7" min="14857" max="15106"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="15107" max="15107"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="15108" max="15108"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="15109" max="15109"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="15110" max="15110"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="15111" max="15111"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="15112" max="15112"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="15107" max="15107"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="15108" max="15108"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="15109" max="15109"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="15110" max="15110"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="15111" max="15111"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="15112" max="15112"/>
     <col width="9" customWidth="1" style="7" min="15113" max="15362"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="15363" max="15363"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="15364" max="15364"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="15365" max="15365"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="15366" max="15366"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="15367" max="15367"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="15368" max="15368"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="15363" max="15363"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="15364" max="15364"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="15365" max="15365"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="15366" max="15366"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="15367" max="15367"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="15368" max="15368"/>
     <col width="9" customWidth="1" style="7" min="15369" max="15618"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="15619" max="15619"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="15620" max="15620"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="15621" max="15621"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="15622" max="15622"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="15623" max="15623"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="15624" max="15624"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="15619" max="15619"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="15620" max="15620"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="15621" max="15621"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="15622" max="15622"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="15623" max="15623"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="15624" max="15624"/>
     <col width="9" customWidth="1" style="7" min="15625" max="15874"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="15875" max="15875"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="15876" max="15876"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="15877" max="15877"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="15878" max="15878"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="15879" max="15879"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="15880" max="15880"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="15875" max="15875"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="15876" max="15876"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="15877" max="15877"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="15878" max="15878"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="15879" max="15879"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="15880" max="15880"/>
     <col width="9" customWidth="1" style="7" min="15881" max="16130"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="16131" max="16131"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="16132" max="16132"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="7" min="16133" max="16133"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="7" min="16134" max="16134"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="7" min="16135" max="16135"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="7" min="16136" max="16136"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="16131" max="16131"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="16132" max="16132"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="7" min="16133" max="16133"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="7" min="16134" max="16134"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="7" min="16135" max="16135"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="7" min="16136" max="16136"/>
     <col width="9" customWidth="1" style="7" min="16137" max="16384"/>
   </cols>
   <sheetData>
@@ -1547,18 +1648,18 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16"/>
   <cols>
-    <col width="17.25" bestFit="1" customWidth="1" style="25" min="1" max="1"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="25" min="1" max="1"/>
     <col width="10" bestFit="1" customWidth="1" style="25" min="2" max="2"/>
-    <col width="5.875" bestFit="1" customWidth="1" style="25" min="3" max="3"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="25" min="4" max="4"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="25" min="5" max="7"/>
-    <col width="7.5" bestFit="1" customWidth="1" style="25" min="8" max="8"/>
+    <col width="5.88671875" bestFit="1" customWidth="1" style="25" min="3" max="3"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="25" min="4" max="4"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="25" min="5" max="7"/>
+    <col width="7.44140625" bestFit="1" customWidth="1" style="25" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1625,9 +1726,9 @@
           <t>00101001</t>
         </is>
       </c>
-      <c r="F2" s="14" t="inlineStr">
-        <is>
-          <t>陈晓</t>
+      <c r="F2" s="16" t="inlineStr">
+        <is>
+          <t>陈勇</t>
         </is>
       </c>
       <c r="G2" s="16" t="inlineStr">
@@ -1663,9 +1764,9 @@
           <t>00101001</t>
         </is>
       </c>
-      <c r="F3" s="14" t="inlineStr">
-        <is>
-          <t>陈晓</t>
+      <c r="F3" s="16" t="inlineStr">
+        <is>
+          <t>陈勇</t>
         </is>
       </c>
       <c r="G3" s="16" t="inlineStr">
@@ -1701,9 +1802,9 @@
           <t>00101002</t>
         </is>
       </c>
-      <c r="F4" s="14" t="inlineStr">
-        <is>
-          <t>李念</t>
+      <c r="F4" s="16" t="inlineStr">
+        <is>
+          <t>李想</t>
         </is>
       </c>
       <c r="G4" s="16" t="inlineStr">
@@ -1739,9 +1840,9 @@
           <t>00101002</t>
         </is>
       </c>
-      <c r="F5" s="14" t="inlineStr">
-        <is>
-          <t>李念</t>
+      <c r="F5" s="16" t="inlineStr">
+        <is>
+          <t>李想</t>
         </is>
       </c>
       <c r="G5" s="16" t="inlineStr">
@@ -2609,13 +2710,13 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col width="9.5" bestFit="1" customWidth="1" style="14" min="1" max="2"/>
-    <col width="19.375" bestFit="1" customWidth="1" style="14" min="3" max="3"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="14" min="4" max="4"/>
-    <col width="9.75" customWidth="1" style="14" min="5" max="5"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="14" min="6" max="8"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="14" min="1" max="2"/>
+    <col width="19.33203125" bestFit="1" customWidth="1" style="14" min="3" max="3"/>
+    <col width="18.33203125" bestFit="1" customWidth="1" style="14" min="4" max="4"/>
+    <col width="9.77734375" customWidth="1" style="14" min="5" max="5"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="14" min="6" max="8"/>
     <col width="9" customWidth="1" style="14" min="9" max="16384"/>
   </cols>
   <sheetData>
@@ -2669,7 +2770,7 @@
       </c>
       <c r="B2" s="14" t="inlineStr">
         <is>
-          <t>陈晓</t>
+          <t>陈勇</t>
         </is>
       </c>
       <c r="C2" s="14" t="inlineStr">
@@ -2703,7 +2804,7 @@
       </c>
       <c r="B3" s="14" t="inlineStr">
         <is>
-          <t>陈晓</t>
+          <t>陈勇</t>
         </is>
       </c>
       <c r="C3" s="14" t="inlineStr">
@@ -2737,7 +2838,7 @@
       </c>
       <c r="B4" s="14" t="inlineStr">
         <is>
-          <t>李念</t>
+          <t>李想</t>
         </is>
       </c>
       <c r="C4" s="14" t="inlineStr">
@@ -2771,7 +2872,7 @@
       </c>
       <c r="B5" s="14" t="inlineStr">
         <is>
-          <t>李念</t>
+          <t>李想</t>
         </is>
       </c>
       <c r="C5" s="14" t="inlineStr">
@@ -3559,20 +3660,20 @@
   </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16"/>
   <cols>
-    <col width="19.25" customWidth="1" style="25" min="1" max="1"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="25" min="2" max="2"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="25" min="3" max="3"/>
-    <col width="28.25" bestFit="1" customWidth="1" style="25" min="4" max="4"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="25" min="5" max="6"/>
-    <col width="12.125" bestFit="1" customWidth="1" style="25" min="7" max="7"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="25" min="8" max="8"/>
-    <col width="7.5" bestFit="1" customWidth="1" style="25" min="9" max="9"/>
+    <col width="19.21875" customWidth="1" style="25" min="1" max="1"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="25" min="2" max="2"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="25" min="3" max="3"/>
+    <col width="28.21875" bestFit="1" customWidth="1" style="25" min="4" max="4"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="25" min="5" max="6"/>
+    <col width="12.109375" bestFit="1" customWidth="1" style="25" min="7" max="7"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="25" min="8" max="8"/>
+    <col width="7.44140625" bestFit="1" customWidth="1" style="25" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3649,7 +3750,7 @@
       </c>
       <c r="F2" s="16" t="inlineStr">
         <is>
-          <t>陈晓</t>
+          <t>陈勇</t>
         </is>
       </c>
       <c r="G2" s="16" t="inlineStr">
@@ -3694,7 +3795,7 @@
       </c>
       <c r="F3" s="16" t="inlineStr">
         <is>
-          <t>陈晓</t>
+          <t>陈勇</t>
         </is>
       </c>
       <c r="G3" s="16" t="inlineStr">
@@ -3739,7 +3840,7 @@
       </c>
       <c r="F4" s="16" t="inlineStr">
         <is>
-          <t>李念</t>
+          <t>李想</t>
         </is>
       </c>
       <c r="G4" s="16" t="inlineStr">
@@ -4405,522 +4506,522 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16"/>
   <cols>
-    <col width="9.5" customWidth="1" style="16" min="1" max="1"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="2" max="2"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="3" max="3"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="4" max="4"/>
-    <col width="12.125" bestFit="1" customWidth="1" style="16" min="5" max="5"/>
-    <col width="11.875" customWidth="1" style="16" min="6" max="6"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="7" max="7"/>
+    <col width="9.44140625" customWidth="1" style="16" min="1" max="1"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="2" max="2"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="3" max="3"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="4" max="4"/>
+    <col width="12.109375" bestFit="1" customWidth="1" style="16" min="5" max="5"/>
+    <col width="11.88671875" customWidth="1" style="16" min="6" max="6"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="7" max="7"/>
     <col width="10" bestFit="1" customWidth="1" style="16" min="8" max="8"/>
-    <col width="29.5" bestFit="1" customWidth="1" style="16" min="9" max="9"/>
-    <col width="7.875" bestFit="1" customWidth="1" style="16" min="10" max="10"/>
+    <col width="29.44140625" bestFit="1" customWidth="1" style="16" min="9" max="9"/>
+    <col width="7.88671875" bestFit="1" customWidth="1" style="16" min="10" max="10"/>
     <col width="9" customWidth="1" style="16" min="11" max="257"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="258" max="259"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="260" max="260"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="261" max="262"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="263" max="263"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="264" max="264"/>
-    <col width="26.125" customWidth="1" style="16" min="265" max="265"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="266" max="266"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="258" max="259"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="260" max="260"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="261" max="262"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="263" max="263"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="264" max="264"/>
+    <col width="26.109375" customWidth="1" style="16" min="265" max="265"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="266" max="266"/>
     <col width="9" customWidth="1" style="16" min="267" max="513"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="514" max="515"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="516" max="516"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="517" max="518"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="519" max="519"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="520" max="520"/>
-    <col width="26.125" customWidth="1" style="16" min="521" max="521"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="522" max="522"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="514" max="515"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="516" max="516"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="517" max="518"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="519" max="519"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="520" max="520"/>
+    <col width="26.109375" customWidth="1" style="16" min="521" max="521"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="522" max="522"/>
     <col width="9" customWidth="1" style="16" min="523" max="769"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="770" max="771"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="772" max="772"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="773" max="774"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="775" max="775"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="776" max="776"/>
-    <col width="26.125" customWidth="1" style="16" min="777" max="777"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="778" max="778"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="770" max="771"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="772" max="772"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="773" max="774"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="775" max="775"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="776" max="776"/>
+    <col width="26.109375" customWidth="1" style="16" min="777" max="777"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="778" max="778"/>
     <col width="9" customWidth="1" style="16" min="779" max="1025"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="1026" max="1027"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="1028" max="1028"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="1029" max="1030"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="1031" max="1031"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="1032" max="1032"/>
-    <col width="26.125" customWidth="1" style="16" min="1033" max="1033"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="1034" max="1034"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="1026" max="1027"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="1028" max="1028"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="1029" max="1030"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="1031" max="1031"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="1032" max="1032"/>
+    <col width="26.109375" customWidth="1" style="16" min="1033" max="1033"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="1034" max="1034"/>
     <col width="9" customWidth="1" style="16" min="1035" max="1281"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="1282" max="1283"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="1284" max="1284"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="1285" max="1286"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="1287" max="1287"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="1288" max="1288"/>
-    <col width="26.125" customWidth="1" style="16" min="1289" max="1289"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="1290" max="1290"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="1282" max="1283"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="1284" max="1284"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="1285" max="1286"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="1287" max="1287"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="1288" max="1288"/>
+    <col width="26.109375" customWidth="1" style="16" min="1289" max="1289"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="1290" max="1290"/>
     <col width="9" customWidth="1" style="16" min="1291" max="1537"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="1538" max="1539"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="1540" max="1540"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="1541" max="1542"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="1543" max="1543"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="1544" max="1544"/>
-    <col width="26.125" customWidth="1" style="16" min="1545" max="1545"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="1546" max="1546"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="1538" max="1539"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="1540" max="1540"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="1541" max="1542"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="1543" max="1543"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="1544" max="1544"/>
+    <col width="26.109375" customWidth="1" style="16" min="1545" max="1545"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="1546" max="1546"/>
     <col width="9" customWidth="1" style="16" min="1547" max="1793"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="1794" max="1795"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="1796" max="1796"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="1797" max="1798"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="1799" max="1799"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="1800" max="1800"/>
-    <col width="26.125" customWidth="1" style="16" min="1801" max="1801"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="1802" max="1802"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="1794" max="1795"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="1796" max="1796"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="1797" max="1798"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="1799" max="1799"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="1800" max="1800"/>
+    <col width="26.109375" customWidth="1" style="16" min="1801" max="1801"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="1802" max="1802"/>
     <col width="9" customWidth="1" style="16" min="1803" max="2049"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="2050" max="2051"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="2052" max="2052"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="2053" max="2054"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="2055" max="2055"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="2056" max="2056"/>
-    <col width="26.125" customWidth="1" style="16" min="2057" max="2057"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="2058" max="2058"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="2050" max="2051"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="2052" max="2052"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="2053" max="2054"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="2055" max="2055"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="2056" max="2056"/>
+    <col width="26.109375" customWidth="1" style="16" min="2057" max="2057"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="2058" max="2058"/>
     <col width="9" customWidth="1" style="16" min="2059" max="2305"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="2306" max="2307"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="2308" max="2308"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="2309" max="2310"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="2311" max="2311"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="2312" max="2312"/>
-    <col width="26.125" customWidth="1" style="16" min="2313" max="2313"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="2314" max="2314"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="2306" max="2307"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="2308" max="2308"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="2309" max="2310"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="2311" max="2311"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="2312" max="2312"/>
+    <col width="26.109375" customWidth="1" style="16" min="2313" max="2313"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="2314" max="2314"/>
     <col width="9" customWidth="1" style="16" min="2315" max="2561"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="2562" max="2563"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="2564" max="2564"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="2565" max="2566"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="2567" max="2567"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="2568" max="2568"/>
-    <col width="26.125" customWidth="1" style="16" min="2569" max="2569"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="2570" max="2570"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="2562" max="2563"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="2564" max="2564"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="2565" max="2566"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="2567" max="2567"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="2568" max="2568"/>
+    <col width="26.109375" customWidth="1" style="16" min="2569" max="2569"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="2570" max="2570"/>
     <col width="9" customWidth="1" style="16" min="2571" max="2817"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="2818" max="2819"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="2820" max="2820"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="2821" max="2822"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="2823" max="2823"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="2824" max="2824"/>
-    <col width="26.125" customWidth="1" style="16" min="2825" max="2825"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="2826" max="2826"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="2818" max="2819"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="2820" max="2820"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="2821" max="2822"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="2823" max="2823"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="2824" max="2824"/>
+    <col width="26.109375" customWidth="1" style="16" min="2825" max="2825"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="2826" max="2826"/>
     <col width="9" customWidth="1" style="16" min="2827" max="3073"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="3074" max="3075"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="3076" max="3076"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="3077" max="3078"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="3079" max="3079"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="3080" max="3080"/>
-    <col width="26.125" customWidth="1" style="16" min="3081" max="3081"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="3082" max="3082"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="3074" max="3075"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="3076" max="3076"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="3077" max="3078"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="3079" max="3079"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="3080" max="3080"/>
+    <col width="26.109375" customWidth="1" style="16" min="3081" max="3081"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="3082" max="3082"/>
     <col width="9" customWidth="1" style="16" min="3083" max="3329"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="3330" max="3331"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="3332" max="3332"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="3333" max="3334"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="3335" max="3335"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="3336" max="3336"/>
-    <col width="26.125" customWidth="1" style="16" min="3337" max="3337"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="3338" max="3338"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="3330" max="3331"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="3332" max="3332"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="3333" max="3334"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="3335" max="3335"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="3336" max="3336"/>
+    <col width="26.109375" customWidth="1" style="16" min="3337" max="3337"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="3338" max="3338"/>
     <col width="9" customWidth="1" style="16" min="3339" max="3585"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="3586" max="3587"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="3588" max="3588"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="3589" max="3590"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="3591" max="3591"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="3592" max="3592"/>
-    <col width="26.125" customWidth="1" style="16" min="3593" max="3593"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="3594" max="3594"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="3586" max="3587"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="3588" max="3588"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="3589" max="3590"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="3591" max="3591"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="3592" max="3592"/>
+    <col width="26.109375" customWidth="1" style="16" min="3593" max="3593"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="3594" max="3594"/>
     <col width="9" customWidth="1" style="16" min="3595" max="3841"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="3842" max="3843"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="3844" max="3844"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="3845" max="3846"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="3847" max="3847"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="3848" max="3848"/>
-    <col width="26.125" customWidth="1" style="16" min="3849" max="3849"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="3850" max="3850"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="3842" max="3843"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="3844" max="3844"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="3845" max="3846"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="3847" max="3847"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="3848" max="3848"/>
+    <col width="26.109375" customWidth="1" style="16" min="3849" max="3849"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="3850" max="3850"/>
     <col width="9" customWidth="1" style="16" min="3851" max="4097"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="4098" max="4099"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="4100" max="4100"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="4101" max="4102"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="4103" max="4103"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="4104" max="4104"/>
-    <col width="26.125" customWidth="1" style="16" min="4105" max="4105"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="4106" max="4106"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="4098" max="4099"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="4100" max="4100"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="4101" max="4102"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="4103" max="4103"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="4104" max="4104"/>
+    <col width="26.109375" customWidth="1" style="16" min="4105" max="4105"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="4106" max="4106"/>
     <col width="9" customWidth="1" style="16" min="4107" max="4353"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="4354" max="4355"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="4356" max="4356"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="4357" max="4358"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="4359" max="4359"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="4360" max="4360"/>
-    <col width="26.125" customWidth="1" style="16" min="4361" max="4361"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="4362" max="4362"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="4354" max="4355"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="4356" max="4356"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="4357" max="4358"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="4359" max="4359"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="4360" max="4360"/>
+    <col width="26.109375" customWidth="1" style="16" min="4361" max="4361"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="4362" max="4362"/>
     <col width="9" customWidth="1" style="16" min="4363" max="4609"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="4610" max="4611"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="4612" max="4612"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="4613" max="4614"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="4615" max="4615"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="4616" max="4616"/>
-    <col width="26.125" customWidth="1" style="16" min="4617" max="4617"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="4618" max="4618"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="4610" max="4611"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="4612" max="4612"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="4613" max="4614"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="4615" max="4615"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="4616" max="4616"/>
+    <col width="26.109375" customWidth="1" style="16" min="4617" max="4617"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="4618" max="4618"/>
     <col width="9" customWidth="1" style="16" min="4619" max="4865"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="4866" max="4867"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="4868" max="4868"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="4869" max="4870"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="4871" max="4871"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="4872" max="4872"/>
-    <col width="26.125" customWidth="1" style="16" min="4873" max="4873"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="4874" max="4874"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="4866" max="4867"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="4868" max="4868"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="4869" max="4870"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="4871" max="4871"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="4872" max="4872"/>
+    <col width="26.109375" customWidth="1" style="16" min="4873" max="4873"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="4874" max="4874"/>
     <col width="9" customWidth="1" style="16" min="4875" max="5121"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="5122" max="5123"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="5124" max="5124"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="5125" max="5126"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="5127" max="5127"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="5128" max="5128"/>
-    <col width="26.125" customWidth="1" style="16" min="5129" max="5129"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="5130" max="5130"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="5122" max="5123"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="5124" max="5124"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="5125" max="5126"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="5127" max="5127"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="5128" max="5128"/>
+    <col width="26.109375" customWidth="1" style="16" min="5129" max="5129"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="5130" max="5130"/>
     <col width="9" customWidth="1" style="16" min="5131" max="5377"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="5378" max="5379"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="5380" max="5380"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="5381" max="5382"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="5383" max="5383"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="5384" max="5384"/>
-    <col width="26.125" customWidth="1" style="16" min="5385" max="5385"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="5386" max="5386"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="5378" max="5379"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="5380" max="5380"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="5381" max="5382"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="5383" max="5383"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="5384" max="5384"/>
+    <col width="26.109375" customWidth="1" style="16" min="5385" max="5385"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="5386" max="5386"/>
     <col width="9" customWidth="1" style="16" min="5387" max="5633"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="5634" max="5635"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="5636" max="5636"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="5637" max="5638"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="5639" max="5639"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="5640" max="5640"/>
-    <col width="26.125" customWidth="1" style="16" min="5641" max="5641"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="5642" max="5642"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="5634" max="5635"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="5636" max="5636"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="5637" max="5638"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="5639" max="5639"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="5640" max="5640"/>
+    <col width="26.109375" customWidth="1" style="16" min="5641" max="5641"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="5642" max="5642"/>
     <col width="9" customWidth="1" style="16" min="5643" max="5889"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="5890" max="5891"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="5892" max="5892"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="5893" max="5894"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="5895" max="5895"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="5896" max="5896"/>
-    <col width="26.125" customWidth="1" style="16" min="5897" max="5897"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="5898" max="5898"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="5890" max="5891"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="5892" max="5892"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="5893" max="5894"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="5895" max="5895"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="5896" max="5896"/>
+    <col width="26.109375" customWidth="1" style="16" min="5897" max="5897"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="5898" max="5898"/>
     <col width="9" customWidth="1" style="16" min="5899" max="6145"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="6146" max="6147"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="6148" max="6148"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="6149" max="6150"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="6151" max="6151"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="6152" max="6152"/>
-    <col width="26.125" customWidth="1" style="16" min="6153" max="6153"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="6154" max="6154"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="6146" max="6147"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="6148" max="6148"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="6149" max="6150"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="6151" max="6151"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="6152" max="6152"/>
+    <col width="26.109375" customWidth="1" style="16" min="6153" max="6153"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="6154" max="6154"/>
     <col width="9" customWidth="1" style="16" min="6155" max="6401"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="6402" max="6403"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="6404" max="6404"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="6405" max="6406"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="6407" max="6407"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="6408" max="6408"/>
-    <col width="26.125" customWidth="1" style="16" min="6409" max="6409"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="6410" max="6410"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="6402" max="6403"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="6404" max="6404"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="6405" max="6406"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="6407" max="6407"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="6408" max="6408"/>
+    <col width="26.109375" customWidth="1" style="16" min="6409" max="6409"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="6410" max="6410"/>
     <col width="9" customWidth="1" style="16" min="6411" max="6657"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="6658" max="6659"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="6660" max="6660"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="6661" max="6662"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="6663" max="6663"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="6664" max="6664"/>
-    <col width="26.125" customWidth="1" style="16" min="6665" max="6665"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="6666" max="6666"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="6658" max="6659"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="6660" max="6660"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="6661" max="6662"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="6663" max="6663"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="6664" max="6664"/>
+    <col width="26.109375" customWidth="1" style="16" min="6665" max="6665"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="6666" max="6666"/>
     <col width="9" customWidth="1" style="16" min="6667" max="6913"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="6914" max="6915"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="6916" max="6916"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="6917" max="6918"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="6919" max="6919"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="6920" max="6920"/>
-    <col width="26.125" customWidth="1" style="16" min="6921" max="6921"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="6922" max="6922"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="6914" max="6915"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="6916" max="6916"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="6917" max="6918"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="6919" max="6919"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="6920" max="6920"/>
+    <col width="26.109375" customWidth="1" style="16" min="6921" max="6921"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="6922" max="6922"/>
     <col width="9" customWidth="1" style="16" min="6923" max="7169"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="7170" max="7171"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="7172" max="7172"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="7173" max="7174"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="7175" max="7175"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="7176" max="7176"/>
-    <col width="26.125" customWidth="1" style="16" min="7177" max="7177"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="7178" max="7178"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="7170" max="7171"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="7172" max="7172"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="7173" max="7174"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="7175" max="7175"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="7176" max="7176"/>
+    <col width="26.109375" customWidth="1" style="16" min="7177" max="7177"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="7178" max="7178"/>
     <col width="9" customWidth="1" style="16" min="7179" max="7425"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="7426" max="7427"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="7428" max="7428"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="7429" max="7430"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="7431" max="7431"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="7432" max="7432"/>
-    <col width="26.125" customWidth="1" style="16" min="7433" max="7433"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="7434" max="7434"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="7426" max="7427"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="7428" max="7428"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="7429" max="7430"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="7431" max="7431"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="7432" max="7432"/>
+    <col width="26.109375" customWidth="1" style="16" min="7433" max="7433"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="7434" max="7434"/>
     <col width="9" customWidth="1" style="16" min="7435" max="7681"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="7682" max="7683"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="7684" max="7684"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="7685" max="7686"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="7687" max="7687"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="7688" max="7688"/>
-    <col width="26.125" customWidth="1" style="16" min="7689" max="7689"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="7690" max="7690"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="7682" max="7683"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="7684" max="7684"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="7685" max="7686"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="7687" max="7687"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="7688" max="7688"/>
+    <col width="26.109375" customWidth="1" style="16" min="7689" max="7689"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="7690" max="7690"/>
     <col width="9" customWidth="1" style="16" min="7691" max="7937"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="7938" max="7939"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="7940" max="7940"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="7941" max="7942"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="7943" max="7943"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="7944" max="7944"/>
-    <col width="26.125" customWidth="1" style="16" min="7945" max="7945"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="7946" max="7946"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="7938" max="7939"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="7940" max="7940"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="7941" max="7942"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="7943" max="7943"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="7944" max="7944"/>
+    <col width="26.109375" customWidth="1" style="16" min="7945" max="7945"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="7946" max="7946"/>
     <col width="9" customWidth="1" style="16" min="7947" max="8193"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="8194" max="8195"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="8196" max="8196"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="8197" max="8198"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="8199" max="8199"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="8200" max="8200"/>
-    <col width="26.125" customWidth="1" style="16" min="8201" max="8201"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="8202" max="8202"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="8194" max="8195"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="8196" max="8196"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="8197" max="8198"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="8199" max="8199"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="8200" max="8200"/>
+    <col width="26.109375" customWidth="1" style="16" min="8201" max="8201"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="8202" max="8202"/>
     <col width="9" customWidth="1" style="16" min="8203" max="8449"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="8450" max="8451"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="8452" max="8452"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="8453" max="8454"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="8455" max="8455"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="8456" max="8456"/>
-    <col width="26.125" customWidth="1" style="16" min="8457" max="8457"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="8458" max="8458"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="8450" max="8451"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="8452" max="8452"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="8453" max="8454"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="8455" max="8455"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="8456" max="8456"/>
+    <col width="26.109375" customWidth="1" style="16" min="8457" max="8457"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="8458" max="8458"/>
     <col width="9" customWidth="1" style="16" min="8459" max="8705"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="8706" max="8707"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="8708" max="8708"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="8709" max="8710"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="8711" max="8711"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="8712" max="8712"/>
-    <col width="26.125" customWidth="1" style="16" min="8713" max="8713"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="8714" max="8714"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="8706" max="8707"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="8708" max="8708"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="8709" max="8710"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="8711" max="8711"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="8712" max="8712"/>
+    <col width="26.109375" customWidth="1" style="16" min="8713" max="8713"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="8714" max="8714"/>
     <col width="9" customWidth="1" style="16" min="8715" max="8961"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="8962" max="8963"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="8964" max="8964"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="8965" max="8966"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="8967" max="8967"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="8968" max="8968"/>
-    <col width="26.125" customWidth="1" style="16" min="8969" max="8969"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="8970" max="8970"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="8962" max="8963"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="8964" max="8964"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="8965" max="8966"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="8967" max="8967"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="8968" max="8968"/>
+    <col width="26.109375" customWidth="1" style="16" min="8969" max="8969"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="8970" max="8970"/>
     <col width="9" customWidth="1" style="16" min="8971" max="9217"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="9218" max="9219"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="9220" max="9220"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="9221" max="9222"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="9223" max="9223"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="9224" max="9224"/>
-    <col width="26.125" customWidth="1" style="16" min="9225" max="9225"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="9226" max="9226"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="9218" max="9219"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="9220" max="9220"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="9221" max="9222"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="9223" max="9223"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="9224" max="9224"/>
+    <col width="26.109375" customWidth="1" style="16" min="9225" max="9225"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="9226" max="9226"/>
     <col width="9" customWidth="1" style="16" min="9227" max="9473"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="9474" max="9475"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="9476" max="9476"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="9477" max="9478"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="9479" max="9479"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="9480" max="9480"/>
-    <col width="26.125" customWidth="1" style="16" min="9481" max="9481"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="9482" max="9482"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="9474" max="9475"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="9476" max="9476"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="9477" max="9478"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="9479" max="9479"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="9480" max="9480"/>
+    <col width="26.109375" customWidth="1" style="16" min="9481" max="9481"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="9482" max="9482"/>
     <col width="9" customWidth="1" style="16" min="9483" max="9729"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="9730" max="9731"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="9732" max="9732"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="9733" max="9734"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="9735" max="9735"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="9736" max="9736"/>
-    <col width="26.125" customWidth="1" style="16" min="9737" max="9737"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="9738" max="9738"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="9730" max="9731"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="9732" max="9732"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="9733" max="9734"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="9735" max="9735"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="9736" max="9736"/>
+    <col width="26.109375" customWidth="1" style="16" min="9737" max="9737"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="9738" max="9738"/>
     <col width="9" customWidth="1" style="16" min="9739" max="9985"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="9986" max="9987"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="9988" max="9988"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="9989" max="9990"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="9991" max="9991"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="9992" max="9992"/>
-    <col width="26.125" customWidth="1" style="16" min="9993" max="9993"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="9994" max="9994"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="9986" max="9987"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="9988" max="9988"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="9989" max="9990"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="9991" max="9991"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="9992" max="9992"/>
+    <col width="26.109375" customWidth="1" style="16" min="9993" max="9993"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="9994" max="9994"/>
     <col width="9" customWidth="1" style="16" min="9995" max="10241"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="10242" max="10243"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="10244" max="10244"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="10245" max="10246"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="10247" max="10247"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="10248" max="10248"/>
-    <col width="26.125" customWidth="1" style="16" min="10249" max="10249"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="10250" max="10250"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="10242" max="10243"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="10244" max="10244"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="10245" max="10246"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="10247" max="10247"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="10248" max="10248"/>
+    <col width="26.109375" customWidth="1" style="16" min="10249" max="10249"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="10250" max="10250"/>
     <col width="9" customWidth="1" style="16" min="10251" max="10497"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="10498" max="10499"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="10500" max="10500"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="10501" max="10502"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="10503" max="10503"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="10504" max="10504"/>
-    <col width="26.125" customWidth="1" style="16" min="10505" max="10505"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="10506" max="10506"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="10498" max="10499"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="10500" max="10500"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="10501" max="10502"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="10503" max="10503"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="10504" max="10504"/>
+    <col width="26.109375" customWidth="1" style="16" min="10505" max="10505"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="10506" max="10506"/>
     <col width="9" customWidth="1" style="16" min="10507" max="10753"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="10754" max="10755"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="10756" max="10756"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="10757" max="10758"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="10759" max="10759"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="10760" max="10760"/>
-    <col width="26.125" customWidth="1" style="16" min="10761" max="10761"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="10762" max="10762"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="10754" max="10755"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="10756" max="10756"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="10757" max="10758"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="10759" max="10759"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="10760" max="10760"/>
+    <col width="26.109375" customWidth="1" style="16" min="10761" max="10761"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="10762" max="10762"/>
     <col width="9" customWidth="1" style="16" min="10763" max="11009"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="11010" max="11011"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="11012" max="11012"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="11013" max="11014"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="11015" max="11015"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="11016" max="11016"/>
-    <col width="26.125" customWidth="1" style="16" min="11017" max="11017"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="11018" max="11018"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="11010" max="11011"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="11012" max="11012"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="11013" max="11014"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="11015" max="11015"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="11016" max="11016"/>
+    <col width="26.109375" customWidth="1" style="16" min="11017" max="11017"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="11018" max="11018"/>
     <col width="9" customWidth="1" style="16" min="11019" max="11265"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="11266" max="11267"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="11268" max="11268"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="11269" max="11270"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="11271" max="11271"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="11272" max="11272"/>
-    <col width="26.125" customWidth="1" style="16" min="11273" max="11273"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="11274" max="11274"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="11266" max="11267"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="11268" max="11268"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="11269" max="11270"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="11271" max="11271"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="11272" max="11272"/>
+    <col width="26.109375" customWidth="1" style="16" min="11273" max="11273"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="11274" max="11274"/>
     <col width="9" customWidth="1" style="16" min="11275" max="11521"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="11522" max="11523"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="11524" max="11524"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="11525" max="11526"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="11527" max="11527"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="11528" max="11528"/>
-    <col width="26.125" customWidth="1" style="16" min="11529" max="11529"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="11530" max="11530"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="11522" max="11523"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="11524" max="11524"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="11525" max="11526"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="11527" max="11527"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="11528" max="11528"/>
+    <col width="26.109375" customWidth="1" style="16" min="11529" max="11529"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="11530" max="11530"/>
     <col width="9" customWidth="1" style="16" min="11531" max="11777"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="11778" max="11779"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="11780" max="11780"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="11781" max="11782"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="11783" max="11783"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="11784" max="11784"/>
-    <col width="26.125" customWidth="1" style="16" min="11785" max="11785"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="11786" max="11786"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="11778" max="11779"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="11780" max="11780"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="11781" max="11782"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="11783" max="11783"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="11784" max="11784"/>
+    <col width="26.109375" customWidth="1" style="16" min="11785" max="11785"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="11786" max="11786"/>
     <col width="9" customWidth="1" style="16" min="11787" max="12033"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="12034" max="12035"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="12036" max="12036"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="12037" max="12038"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="12039" max="12039"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="12040" max="12040"/>
-    <col width="26.125" customWidth="1" style="16" min="12041" max="12041"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="12042" max="12042"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="12034" max="12035"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="12036" max="12036"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="12037" max="12038"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="12039" max="12039"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="12040" max="12040"/>
+    <col width="26.109375" customWidth="1" style="16" min="12041" max="12041"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="12042" max="12042"/>
     <col width="9" customWidth="1" style="16" min="12043" max="12289"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="12290" max="12291"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="12292" max="12292"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="12293" max="12294"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="12295" max="12295"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="12296" max="12296"/>
-    <col width="26.125" customWidth="1" style="16" min="12297" max="12297"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="12298" max="12298"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="12290" max="12291"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="12292" max="12292"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="12293" max="12294"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="12295" max="12295"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="12296" max="12296"/>
+    <col width="26.109375" customWidth="1" style="16" min="12297" max="12297"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="12298" max="12298"/>
     <col width="9" customWidth="1" style="16" min="12299" max="12545"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="12546" max="12547"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="12548" max="12548"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="12549" max="12550"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="12551" max="12551"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="12552" max="12552"/>
-    <col width="26.125" customWidth="1" style="16" min="12553" max="12553"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="12554" max="12554"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="12546" max="12547"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="12548" max="12548"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="12549" max="12550"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="12551" max="12551"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="12552" max="12552"/>
+    <col width="26.109375" customWidth="1" style="16" min="12553" max="12553"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="12554" max="12554"/>
     <col width="9" customWidth="1" style="16" min="12555" max="12801"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="12802" max="12803"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="12804" max="12804"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="12805" max="12806"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="12807" max="12807"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="12808" max="12808"/>
-    <col width="26.125" customWidth="1" style="16" min="12809" max="12809"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="12810" max="12810"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="12802" max="12803"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="12804" max="12804"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="12805" max="12806"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="12807" max="12807"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="12808" max="12808"/>
+    <col width="26.109375" customWidth="1" style="16" min="12809" max="12809"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="12810" max="12810"/>
     <col width="9" customWidth="1" style="16" min="12811" max="13057"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="13058" max="13059"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="13060" max="13060"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="13061" max="13062"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="13063" max="13063"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="13064" max="13064"/>
-    <col width="26.125" customWidth="1" style="16" min="13065" max="13065"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="13066" max="13066"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="13058" max="13059"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="13060" max="13060"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="13061" max="13062"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="13063" max="13063"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="13064" max="13064"/>
+    <col width="26.109375" customWidth="1" style="16" min="13065" max="13065"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="13066" max="13066"/>
     <col width="9" customWidth="1" style="16" min="13067" max="13313"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="13314" max="13315"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="13316" max="13316"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="13317" max="13318"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="13319" max="13319"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="13320" max="13320"/>
-    <col width="26.125" customWidth="1" style="16" min="13321" max="13321"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="13322" max="13322"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="13314" max="13315"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="13316" max="13316"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="13317" max="13318"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="13319" max="13319"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="13320" max="13320"/>
+    <col width="26.109375" customWidth="1" style="16" min="13321" max="13321"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="13322" max="13322"/>
     <col width="9" customWidth="1" style="16" min="13323" max="13569"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="13570" max="13571"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="13572" max="13572"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="13573" max="13574"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="13575" max="13575"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="13576" max="13576"/>
-    <col width="26.125" customWidth="1" style="16" min="13577" max="13577"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="13578" max="13578"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="13570" max="13571"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="13572" max="13572"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="13573" max="13574"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="13575" max="13575"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="13576" max="13576"/>
+    <col width="26.109375" customWidth="1" style="16" min="13577" max="13577"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="13578" max="13578"/>
     <col width="9" customWidth="1" style="16" min="13579" max="13825"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="13826" max="13827"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="13828" max="13828"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="13829" max="13830"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="13831" max="13831"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="13832" max="13832"/>
-    <col width="26.125" customWidth="1" style="16" min="13833" max="13833"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="13834" max="13834"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="13826" max="13827"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="13828" max="13828"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="13829" max="13830"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="13831" max="13831"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="13832" max="13832"/>
+    <col width="26.109375" customWidth="1" style="16" min="13833" max="13833"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="13834" max="13834"/>
     <col width="9" customWidth="1" style="16" min="13835" max="14081"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="14082" max="14083"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="14084" max="14084"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="14085" max="14086"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="14087" max="14087"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="14088" max="14088"/>
-    <col width="26.125" customWidth="1" style="16" min="14089" max="14089"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="14090" max="14090"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="14082" max="14083"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="14084" max="14084"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="14085" max="14086"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="14087" max="14087"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="14088" max="14088"/>
+    <col width="26.109375" customWidth="1" style="16" min="14089" max="14089"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="14090" max="14090"/>
     <col width="9" customWidth="1" style="16" min="14091" max="14337"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="14338" max="14339"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="14340" max="14340"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="14341" max="14342"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="14343" max="14343"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="14344" max="14344"/>
-    <col width="26.125" customWidth="1" style="16" min="14345" max="14345"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="14346" max="14346"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="14338" max="14339"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="14340" max="14340"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="14341" max="14342"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="14343" max="14343"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="14344" max="14344"/>
+    <col width="26.109375" customWidth="1" style="16" min="14345" max="14345"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="14346" max="14346"/>
     <col width="9" customWidth="1" style="16" min="14347" max="14593"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="14594" max="14595"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="14596" max="14596"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="14597" max="14598"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="14599" max="14599"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="14600" max="14600"/>
-    <col width="26.125" customWidth="1" style="16" min="14601" max="14601"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="14602" max="14602"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="14594" max="14595"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="14596" max="14596"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="14597" max="14598"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="14599" max="14599"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="14600" max="14600"/>
+    <col width="26.109375" customWidth="1" style="16" min="14601" max="14601"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="14602" max="14602"/>
     <col width="9" customWidth="1" style="16" min="14603" max="14849"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="14850" max="14851"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="14852" max="14852"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="14853" max="14854"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="14855" max="14855"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="14856" max="14856"/>
-    <col width="26.125" customWidth="1" style="16" min="14857" max="14857"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="14858" max="14858"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="14850" max="14851"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="14852" max="14852"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="14853" max="14854"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="14855" max="14855"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="14856" max="14856"/>
+    <col width="26.109375" customWidth="1" style="16" min="14857" max="14857"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="14858" max="14858"/>
     <col width="9" customWidth="1" style="16" min="14859" max="15105"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="15106" max="15107"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="15108" max="15108"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="15109" max="15110"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="15111" max="15111"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="15112" max="15112"/>
-    <col width="26.125" customWidth="1" style="16" min="15113" max="15113"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="15114" max="15114"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="15106" max="15107"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="15108" max="15108"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="15109" max="15110"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="15111" max="15111"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="15112" max="15112"/>
+    <col width="26.109375" customWidth="1" style="16" min="15113" max="15113"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="15114" max="15114"/>
     <col width="9" customWidth="1" style="16" min="15115" max="15361"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="15362" max="15363"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="15364" max="15364"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="15365" max="15366"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="15367" max="15367"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="15368" max="15368"/>
-    <col width="26.125" customWidth="1" style="16" min="15369" max="15369"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="15370" max="15370"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="15362" max="15363"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="15364" max="15364"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="15365" max="15366"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="15367" max="15367"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="15368" max="15368"/>
+    <col width="26.109375" customWidth="1" style="16" min="15369" max="15369"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="15370" max="15370"/>
     <col width="9" customWidth="1" style="16" min="15371" max="15617"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="15618" max="15619"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="15620" max="15620"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="15621" max="15622"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="15623" max="15623"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="15624" max="15624"/>
-    <col width="26.125" customWidth="1" style="16" min="15625" max="15625"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="15626" max="15626"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="15618" max="15619"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="15620" max="15620"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="15621" max="15622"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="15623" max="15623"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="15624" max="15624"/>
+    <col width="26.109375" customWidth="1" style="16" min="15625" max="15625"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="15626" max="15626"/>
     <col width="9" customWidth="1" style="16" min="15627" max="15873"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="15874" max="15875"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="15876" max="15876"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="15877" max="15878"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="15879" max="15879"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="15880" max="15880"/>
-    <col width="26.125" customWidth="1" style="16" min="15881" max="15881"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="15882" max="15882"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="15874" max="15875"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="15876" max="15876"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="15877" max="15878"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="15879" max="15879"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="15880" max="15880"/>
+    <col width="26.109375" customWidth="1" style="16" min="15881" max="15881"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="15882" max="15882"/>
     <col width="9" customWidth="1" style="16" min="15883" max="16129"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="16130" max="16131"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="16" min="16132" max="16132"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="16133" max="16134"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="16" min="16135" max="16135"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="16" min="16136" max="16136"/>
-    <col width="26.125" customWidth="1" style="16" min="16137" max="16137"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="16" min="16138" max="16138"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="16130" max="16131"/>
+    <col width="17.21875" bestFit="1" customWidth="1" style="16" min="16132" max="16132"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="16133" max="16134"/>
+    <col width="5.44140625" bestFit="1" customWidth="1" style="16" min="16135" max="16135"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="16" min="16136" max="16136"/>
+    <col width="26.109375" customWidth="1" style="16" min="16137" max="16137"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="16138" max="16138"/>
     <col width="9" customWidth="1" style="16" min="16139" max="16384"/>
   </cols>
   <sheetData>
@@ -4985,7 +5086,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>陈晓</t>
+          <t>陈勇</t>
         </is>
       </c>
       <c r="C2" s="16" t="inlineStr">
@@ -5031,7 +5132,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>陈晓</t>
+          <t>陈勇</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -5077,7 +5178,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>李念</t>
+          <t>李想</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -5772,332 +5873,332 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16"/>
   <cols>
     <col width="10" bestFit="1" customWidth="1" style="7" min="1" max="2"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="3" max="4"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="3" max="4"/>
     <col width="9" customWidth="1" style="7" min="5" max="5"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="6" max="6"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="6" max="6"/>
     <col width="9" customWidth="1" style="7" min="7" max="7"/>
     <col width="9" customWidth="1" style="7" min="8" max="257"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="258" max="258"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="259" max="260"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="258" max="258"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="259" max="260"/>
     <col width="9" customWidth="1" style="7" min="261" max="261"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="262" max="262"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="262" max="262"/>
     <col width="9" customWidth="1" style="7" min="263" max="513"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="514" max="514"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="515" max="516"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="514" max="514"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="515" max="516"/>
     <col width="9" customWidth="1" style="7" min="517" max="517"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="518" max="518"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="518" max="518"/>
     <col width="9" customWidth="1" style="7" min="519" max="769"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="770" max="770"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="771" max="772"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="770" max="770"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="771" max="772"/>
     <col width="9" customWidth="1" style="7" min="773" max="773"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="774" max="774"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="774" max="774"/>
     <col width="9" customWidth="1" style="7" min="775" max="1025"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="1026" max="1026"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="1027" max="1028"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="1026" max="1026"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="1027" max="1028"/>
     <col width="9" customWidth="1" style="7" min="1029" max="1029"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="1030" max="1030"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="1030" max="1030"/>
     <col width="9" customWidth="1" style="7" min="1031" max="1281"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="1282" max="1282"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="1283" max="1284"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="1282" max="1282"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="1283" max="1284"/>
     <col width="9" customWidth="1" style="7" min="1285" max="1285"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="1286" max="1286"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="1286" max="1286"/>
     <col width="9" customWidth="1" style="7" min="1287" max="1537"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="1538" max="1538"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="1539" max="1540"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="1538" max="1538"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="1539" max="1540"/>
     <col width="9" customWidth="1" style="7" min="1541" max="1541"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="1542" max="1542"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="1542" max="1542"/>
     <col width="9" customWidth="1" style="7" min="1543" max="1793"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="1794" max="1794"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="1795" max="1796"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="1794" max="1794"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="1795" max="1796"/>
     <col width="9" customWidth="1" style="7" min="1797" max="1797"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="1798" max="1798"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="1798" max="1798"/>
     <col width="9" customWidth="1" style="7" min="1799" max="2049"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="2050" max="2050"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="2051" max="2052"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="2050" max="2050"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="2051" max="2052"/>
     <col width="9" customWidth="1" style="7" min="2053" max="2053"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="2054" max="2054"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="2054" max="2054"/>
     <col width="9" customWidth="1" style="7" min="2055" max="2305"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="2306" max="2306"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="2307" max="2308"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="2306" max="2306"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="2307" max="2308"/>
     <col width="9" customWidth="1" style="7" min="2309" max="2309"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="2310" max="2310"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="2310" max="2310"/>
     <col width="9" customWidth="1" style="7" min="2311" max="2561"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="2562" max="2562"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="2563" max="2564"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="2562" max="2562"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="2563" max="2564"/>
     <col width="9" customWidth="1" style="7" min="2565" max="2565"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="2566" max="2566"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="2566" max="2566"/>
     <col width="9" customWidth="1" style="7" min="2567" max="2817"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="2818" max="2818"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="2819" max="2820"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="2818" max="2818"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="2819" max="2820"/>
     <col width="9" customWidth="1" style="7" min="2821" max="2821"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="2822" max="2822"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="2822" max="2822"/>
     <col width="9" customWidth="1" style="7" min="2823" max="3073"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="3074" max="3074"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="3075" max="3076"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="3074" max="3074"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="3075" max="3076"/>
     <col width="9" customWidth="1" style="7" min="3077" max="3077"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="3078" max="3078"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="3078" max="3078"/>
     <col width="9" customWidth="1" style="7" min="3079" max="3329"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="3330" max="3330"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="3331" max="3332"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="3330" max="3330"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="3331" max="3332"/>
     <col width="9" customWidth="1" style="7" min="3333" max="3333"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="3334" max="3334"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="3334" max="3334"/>
     <col width="9" customWidth="1" style="7" min="3335" max="3585"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="3586" max="3586"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="3587" max="3588"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="3586" max="3586"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="3587" max="3588"/>
     <col width="9" customWidth="1" style="7" min="3589" max="3589"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="3590" max="3590"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="3590" max="3590"/>
     <col width="9" customWidth="1" style="7" min="3591" max="3841"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="3842" max="3842"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="3843" max="3844"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="3842" max="3842"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="3843" max="3844"/>
     <col width="9" customWidth="1" style="7" min="3845" max="3845"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="3846" max="3846"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="3846" max="3846"/>
     <col width="9" customWidth="1" style="7" min="3847" max="4097"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="4098" max="4098"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="4099" max="4100"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="4098" max="4098"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="4099" max="4100"/>
     <col width="9" customWidth="1" style="7" min="4101" max="4101"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="4102" max="4102"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="4102" max="4102"/>
     <col width="9" customWidth="1" style="7" min="4103" max="4353"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="4354" max="4354"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="4355" max="4356"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="4354" max="4354"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="4355" max="4356"/>
     <col width="9" customWidth="1" style="7" min="4357" max="4357"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="4358" max="4358"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="4358" max="4358"/>
     <col width="9" customWidth="1" style="7" min="4359" max="4609"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="4610" max="4610"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="4611" max="4612"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="4610" max="4610"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="4611" max="4612"/>
     <col width="9" customWidth="1" style="7" min="4613" max="4613"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="4614" max="4614"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="4614" max="4614"/>
     <col width="9" customWidth="1" style="7" min="4615" max="4865"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="4866" max="4866"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="4867" max="4868"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="4866" max="4866"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="4867" max="4868"/>
     <col width="9" customWidth="1" style="7" min="4869" max="4869"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="4870" max="4870"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="4870" max="4870"/>
     <col width="9" customWidth="1" style="7" min="4871" max="5121"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="5122" max="5122"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="5123" max="5124"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="5122" max="5122"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="5123" max="5124"/>
     <col width="9" customWidth="1" style="7" min="5125" max="5125"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="5126" max="5126"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="5126" max="5126"/>
     <col width="9" customWidth="1" style="7" min="5127" max="5377"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="5378" max="5378"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="5379" max="5380"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="5378" max="5378"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="5379" max="5380"/>
     <col width="9" customWidth="1" style="7" min="5381" max="5381"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="5382" max="5382"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="5382" max="5382"/>
     <col width="9" customWidth="1" style="7" min="5383" max="5633"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="5634" max="5634"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="5635" max="5636"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="5634" max="5634"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="5635" max="5636"/>
     <col width="9" customWidth="1" style="7" min="5637" max="5637"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="5638" max="5638"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="5638" max="5638"/>
     <col width="9" customWidth="1" style="7" min="5639" max="5889"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="5890" max="5890"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="5891" max="5892"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="5890" max="5890"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="5891" max="5892"/>
     <col width="9" customWidth="1" style="7" min="5893" max="5893"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="5894" max="5894"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="5894" max="5894"/>
     <col width="9" customWidth="1" style="7" min="5895" max="6145"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="6146" max="6146"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="6147" max="6148"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="6146" max="6146"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="6147" max="6148"/>
     <col width="9" customWidth="1" style="7" min="6149" max="6149"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="6150" max="6150"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="6150" max="6150"/>
     <col width="9" customWidth="1" style="7" min="6151" max="6401"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="6402" max="6402"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="6403" max="6404"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="6402" max="6402"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="6403" max="6404"/>
     <col width="9" customWidth="1" style="7" min="6405" max="6405"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="6406" max="6406"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="6406" max="6406"/>
     <col width="9" customWidth="1" style="7" min="6407" max="6657"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="6658" max="6658"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="6659" max="6660"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="6658" max="6658"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="6659" max="6660"/>
     <col width="9" customWidth="1" style="7" min="6661" max="6661"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="6662" max="6662"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="6662" max="6662"/>
     <col width="9" customWidth="1" style="7" min="6663" max="6913"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="6914" max="6914"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="6915" max="6916"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="6914" max="6914"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="6915" max="6916"/>
     <col width="9" customWidth="1" style="7" min="6917" max="6917"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="6918" max="6918"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="6918" max="6918"/>
     <col width="9" customWidth="1" style="7" min="6919" max="7169"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="7170" max="7170"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="7171" max="7172"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="7170" max="7170"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="7171" max="7172"/>
     <col width="9" customWidth="1" style="7" min="7173" max="7173"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="7174" max="7174"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="7174" max="7174"/>
     <col width="9" customWidth="1" style="7" min="7175" max="7425"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="7426" max="7426"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="7427" max="7428"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="7426" max="7426"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="7427" max="7428"/>
     <col width="9" customWidth="1" style="7" min="7429" max="7429"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="7430" max="7430"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="7430" max="7430"/>
     <col width="9" customWidth="1" style="7" min="7431" max="7681"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="7682" max="7682"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="7683" max="7684"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="7682" max="7682"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="7683" max="7684"/>
     <col width="9" customWidth="1" style="7" min="7685" max="7685"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="7686" max="7686"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="7686" max="7686"/>
     <col width="9" customWidth="1" style="7" min="7687" max="7937"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="7938" max="7938"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="7939" max="7940"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="7938" max="7938"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="7939" max="7940"/>
     <col width="9" customWidth="1" style="7" min="7941" max="7941"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="7942" max="7942"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="7942" max="7942"/>
     <col width="9" customWidth="1" style="7" min="7943" max="8193"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="8194" max="8194"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="8195" max="8196"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="8194" max="8194"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="8195" max="8196"/>
     <col width="9" customWidth="1" style="7" min="8197" max="8197"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="8198" max="8198"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="8198" max="8198"/>
     <col width="9" customWidth="1" style="7" min="8199" max="8449"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="8450" max="8450"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="8451" max="8452"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="8450" max="8450"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="8451" max="8452"/>
     <col width="9" customWidth="1" style="7" min="8453" max="8453"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="8454" max="8454"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="8454" max="8454"/>
     <col width="9" customWidth="1" style="7" min="8455" max="8705"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="8706" max="8706"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="8707" max="8708"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="8706" max="8706"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="8707" max="8708"/>
     <col width="9" customWidth="1" style="7" min="8709" max="8709"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="8710" max="8710"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="8710" max="8710"/>
     <col width="9" customWidth="1" style="7" min="8711" max="8961"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="8962" max="8962"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="8963" max="8964"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="8962" max="8962"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="8963" max="8964"/>
     <col width="9" customWidth="1" style="7" min="8965" max="8965"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="8966" max="8966"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="8966" max="8966"/>
     <col width="9" customWidth="1" style="7" min="8967" max="9217"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="9218" max="9218"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="9219" max="9220"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="9218" max="9218"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="9219" max="9220"/>
     <col width="9" customWidth="1" style="7" min="9221" max="9221"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="9222" max="9222"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="9222" max="9222"/>
     <col width="9" customWidth="1" style="7" min="9223" max="9473"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="9474" max="9474"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="9475" max="9476"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="9474" max="9474"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="9475" max="9476"/>
     <col width="9" customWidth="1" style="7" min="9477" max="9477"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="9478" max="9478"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="9478" max="9478"/>
     <col width="9" customWidth="1" style="7" min="9479" max="9729"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="9730" max="9730"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="9731" max="9732"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="9730" max="9730"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="9731" max="9732"/>
     <col width="9" customWidth="1" style="7" min="9733" max="9733"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="9734" max="9734"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="9734" max="9734"/>
     <col width="9" customWidth="1" style="7" min="9735" max="9985"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="9986" max="9986"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="9987" max="9988"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="9986" max="9986"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="9987" max="9988"/>
     <col width="9" customWidth="1" style="7" min="9989" max="9989"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="9990" max="9990"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="9990" max="9990"/>
     <col width="9" customWidth="1" style="7" min="9991" max="10241"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="10242" max="10242"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="10243" max="10244"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="10242" max="10242"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="10243" max="10244"/>
     <col width="9" customWidth="1" style="7" min="10245" max="10245"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="10246" max="10246"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="10246" max="10246"/>
     <col width="9" customWidth="1" style="7" min="10247" max="10497"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="10498" max="10498"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="10499" max="10500"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="10498" max="10498"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="10499" max="10500"/>
     <col width="9" customWidth="1" style="7" min="10501" max="10501"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="10502" max="10502"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="10502" max="10502"/>
     <col width="9" customWidth="1" style="7" min="10503" max="10753"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="10754" max="10754"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="10755" max="10756"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="10754" max="10754"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="10755" max="10756"/>
     <col width="9" customWidth="1" style="7" min="10757" max="10757"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="10758" max="10758"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="10758" max="10758"/>
     <col width="9" customWidth="1" style="7" min="10759" max="11009"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="11010" max="11010"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="11011" max="11012"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="11010" max="11010"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="11011" max="11012"/>
     <col width="9" customWidth="1" style="7" min="11013" max="11013"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="11014" max="11014"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="11014" max="11014"/>
     <col width="9" customWidth="1" style="7" min="11015" max="11265"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="11266" max="11266"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="11267" max="11268"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="11266" max="11266"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="11267" max="11268"/>
     <col width="9" customWidth="1" style="7" min="11269" max="11269"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="11270" max="11270"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="11270" max="11270"/>
     <col width="9" customWidth="1" style="7" min="11271" max="11521"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="11522" max="11522"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="11523" max="11524"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="11522" max="11522"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="11523" max="11524"/>
     <col width="9" customWidth="1" style="7" min="11525" max="11525"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="11526" max="11526"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="11526" max="11526"/>
     <col width="9" customWidth="1" style="7" min="11527" max="11777"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="11778" max="11778"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="11779" max="11780"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="11778" max="11778"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="11779" max="11780"/>
     <col width="9" customWidth="1" style="7" min="11781" max="11781"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="11782" max="11782"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="11782" max="11782"/>
     <col width="9" customWidth="1" style="7" min="11783" max="12033"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="12034" max="12034"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="12035" max="12036"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="12034" max="12034"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="12035" max="12036"/>
     <col width="9" customWidth="1" style="7" min="12037" max="12037"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="12038" max="12038"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="12038" max="12038"/>
     <col width="9" customWidth="1" style="7" min="12039" max="12289"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="12290" max="12290"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="12291" max="12292"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="12290" max="12290"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="12291" max="12292"/>
     <col width="9" customWidth="1" style="7" min="12293" max="12293"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="12294" max="12294"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="12294" max="12294"/>
     <col width="9" customWidth="1" style="7" min="12295" max="12545"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="12546" max="12546"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="12547" max="12548"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="12546" max="12546"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="12547" max="12548"/>
     <col width="9" customWidth="1" style="7" min="12549" max="12549"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="12550" max="12550"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="12550" max="12550"/>
     <col width="9" customWidth="1" style="7" min="12551" max="12801"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="12802" max="12802"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="12803" max="12804"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="12802" max="12802"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="12803" max="12804"/>
     <col width="9" customWidth="1" style="7" min="12805" max="12805"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="12806" max="12806"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="12806" max="12806"/>
     <col width="9" customWidth="1" style="7" min="12807" max="13057"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="13058" max="13058"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="13059" max="13060"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="13058" max="13058"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="13059" max="13060"/>
     <col width="9" customWidth="1" style="7" min="13061" max="13061"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="13062" max="13062"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="13062" max="13062"/>
     <col width="9" customWidth="1" style="7" min="13063" max="13313"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="13314" max="13314"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="13315" max="13316"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="13314" max="13314"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="13315" max="13316"/>
     <col width="9" customWidth="1" style="7" min="13317" max="13317"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="13318" max="13318"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="13318" max="13318"/>
     <col width="9" customWidth="1" style="7" min="13319" max="13569"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="13570" max="13570"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="13571" max="13572"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="13570" max="13570"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="13571" max="13572"/>
     <col width="9" customWidth="1" style="7" min="13573" max="13573"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="13574" max="13574"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="13574" max="13574"/>
     <col width="9" customWidth="1" style="7" min="13575" max="13825"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="13826" max="13826"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="13827" max="13828"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="13826" max="13826"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="13827" max="13828"/>
     <col width="9" customWidth="1" style="7" min="13829" max="13829"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="13830" max="13830"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="13830" max="13830"/>
     <col width="9" customWidth="1" style="7" min="13831" max="14081"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="14082" max="14082"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="14083" max="14084"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="14082" max="14082"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="14083" max="14084"/>
     <col width="9" customWidth="1" style="7" min="14085" max="14085"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="14086" max="14086"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="14086" max="14086"/>
     <col width="9" customWidth="1" style="7" min="14087" max="14337"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="14338" max="14338"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="14339" max="14340"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="14338" max="14338"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="14339" max="14340"/>
     <col width="9" customWidth="1" style="7" min="14341" max="14341"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="14342" max="14342"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="14342" max="14342"/>
     <col width="9" customWidth="1" style="7" min="14343" max="14593"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="14594" max="14594"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="14595" max="14596"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="14594" max="14594"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="14595" max="14596"/>
     <col width="9" customWidth="1" style="7" min="14597" max="14597"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="14598" max="14598"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="14598" max="14598"/>
     <col width="9" customWidth="1" style="7" min="14599" max="14849"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="14850" max="14850"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="14851" max="14852"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="14850" max="14850"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="14851" max="14852"/>
     <col width="9" customWidth="1" style="7" min="14853" max="14853"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="14854" max="14854"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="14854" max="14854"/>
     <col width="9" customWidth="1" style="7" min="14855" max="15105"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="15106" max="15106"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="15107" max="15108"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="15106" max="15106"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="15107" max="15108"/>
     <col width="9" customWidth="1" style="7" min="15109" max="15109"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="15110" max="15110"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="15110" max="15110"/>
     <col width="9" customWidth="1" style="7" min="15111" max="15361"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="15362" max="15362"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="15363" max="15364"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="15362" max="15362"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="15363" max="15364"/>
     <col width="9" customWidth="1" style="7" min="15365" max="15365"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="15366" max="15366"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="15366" max="15366"/>
     <col width="9" customWidth="1" style="7" min="15367" max="15617"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="15618" max="15618"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="15619" max="15620"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="15618" max="15618"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="15619" max="15620"/>
     <col width="9" customWidth="1" style="7" min="15621" max="15621"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="15622" max="15622"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="15622" max="15622"/>
     <col width="9" customWidth="1" style="7" min="15623" max="15873"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="15874" max="15874"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="15875" max="15876"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="15874" max="15874"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="15875" max="15876"/>
     <col width="9" customWidth="1" style="7" min="15877" max="15877"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="15878" max="15878"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="15878" max="15878"/>
     <col width="9" customWidth="1" style="7" min="15879" max="16129"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="7" min="16130" max="16130"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="16131" max="16132"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" style="7" min="16130" max="16130"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="16131" max="16132"/>
     <col width="9" customWidth="1" style="7" min="16133" max="16133"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="7" min="16134" max="16134"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="7" min="16134" max="16134"/>
     <col width="9" customWidth="1" style="7" min="16135" max="16384"/>
   </cols>
   <sheetData>
@@ -6145,16 +6246,16 @@
         </is>
       </c>
       <c r="C2" s="29" t="n">
-        <v>0</v>
+        <v>49.51</v>
       </c>
       <c r="D2" s="30" t="n">
-        <v>0</v>
+        <v>77.38</v>
       </c>
       <c r="E2" s="29" t="n">
-        <v>0</v>
+        <v>126.89</v>
       </c>
       <c r="F2" s="31" t="n">
-        <v>0</v>
+        <v>8882.299999999999</v>
       </c>
     </row>
     <row r="3">
@@ -6169,16 +6270,16 @@
         </is>
       </c>
       <c r="C3" s="29" t="n">
-        <v>0</v>
+        <v>50.17</v>
       </c>
       <c r="D3" s="30" t="n">
-        <v>0</v>
+        <v>41.81</v>
       </c>
       <c r="E3" s="29" t="n">
-        <v>0</v>
+        <v>91.98</v>
       </c>
       <c r="F3" s="31" t="n">
-        <v>0</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="4">
